--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3017.397254474312</v>
+        <v>-119376.2252891309</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12294935.76828927</v>
+        <v>11516724.97267368</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22631002.28229035</v>
+        <v>21840749.86579527</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3816140.638488067</v>
+        <v>4237248.324353349</v>
       </c>
     </row>
     <row r="11">
@@ -7984,16 +7984,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L2" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>61.00144891149961</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P2" t="n">
         <v>95.50771753390021</v>
@@ -8066,7 +8066,7 @@
         <v>28.90545725697471</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.17891314335149</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>22.44423757443683</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>37.54182911310821</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,7 +8145,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M4" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N4" t="n">
         <v>62.89780050171086</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K5" t="n">
         <v>86.72591490550931</v>
@@ -8224,13 +8224,13 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P5" t="n">
         <v>80.46778072209531</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P6" t="n">
         <v>26.85597970277001</v>
@@ -8388,10 +8388,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O7" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P7" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>85.97480228639998</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>77.60291342766286</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>58.99876929881117</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>33.65816793912805</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>29.54237978104271</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>41.36599235998582</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>70.15441326031711</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>101.3423827029069</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>70.21392947460487</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>41.06252158333071</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>8.423182087426255</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>19.5283497406852</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>63.47761536183195</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>70.6365977934563</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>60.18264937930154</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>60.16297057655852</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>50.7955347526062</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>67.4361694735309</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>76.9578092403323</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8692,10 +8692,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,7 +8771,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,10 +8929,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,7 +9008,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9090,10 +9090,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
         <v>37.63776203285606</v>
@@ -9166,10 +9166,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
         <v>80.64258426171739</v>
@@ -9245,7 +9245,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,10 +9330,10 @@
         <v>47.39929435887775</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O19" t="n">
         <v>55.28283671961447</v>
@@ -9403,10 +9403,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,7 +9482,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9570,10 +9570,10 @@
         <v>46.68471506615329</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P22" t="n">
         <v>66.55853351624533</v>
@@ -9640,10 +9640,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,7 +9719,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9807,7 +9807,7 @@
         <v>46.68471506615329</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O25" t="n">
         <v>55.28283671961447</v>
@@ -9880,7 +9880,7 @@
         <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,10 +9889,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
         <v>80.64258426171739</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10278,7 +10278,7 @@
         <v>47.39929435887775</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N31" t="n">
         <v>37.63776203285606</v>
@@ -10351,10 +10351,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N34" t="n">
         <v>37.63776203285606</v>
@@ -10588,10 +10588,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10752,7 +10752,7 @@
         <v>47.39929435887775</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N37" t="n">
         <v>37.63776203285606</v>
@@ -10825,10 +10825,10 @@
         <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,7 +10904,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10989,10 +10989,10 @@
         <v>47.39929435887775</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O40" t="n">
         <v>55.28283671961447</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11223,10 +11223,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N43" t="n">
         <v>37.63776203285606</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22579,13 +22579,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>64.61630209323863</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>61.00144891149961</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>71.0718992657024</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -22658,7 +22658,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -22667,7 +22667,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37.54182911310821</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -22816,13 +22816,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>46.25150133729363</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>84.01082088999308</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S5" t="n">
         <v>185.1290231762283</v>
@@ -22889,10 +22889,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>47.25897875440141</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22901,7 +22901,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J7" t="n">
-        <v>60.10977774604451</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.78178798155719</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R7" t="n">
         <v>156.1475068297698</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>414.1825902111655</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>328.0030935389889</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>167.2914106341195</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23050,34 +23050,34 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.01082088999308</v>
+        <v>79.50566485817191</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>183.494712897039</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>218.1924047410046</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2560411235189</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,22 +23114,22 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.7441855184499</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>106.4471622989392</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>68.761749468207</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23138,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>62.94669922618533</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>160.5508486671644</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>197.7490015828257</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9019523675037</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,25 +23193,25 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4885198403462</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>157.7598506100387</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>140.3401468734729</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604451</v>
+        <v>57.83529218611377</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.78178798155719</v>
+        <v>44.08791033046781</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>154.7009843173077</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>215.2600989804104</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>225.7987169418005</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2916224736848</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23284,10 +23284,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,13 +23296,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>67.46474657889404</v>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>56.57895837355435</v>
@@ -23521,10 +23521,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23533,16 +23533,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.069265482343781</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.64258426171736</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
         <v>179.1266962566148</v>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,10 +23618,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
         <v>158.6458343615066</v>
@@ -23758,10 +23758,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23770,10 +23770,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23837,7 +23837,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,10 +23855,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>102.1006281848752</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S18" t="n">
         <v>158.6458343615066</v>
@@ -23922,10 +23922,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>46.68471506615329</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -23995,10 +23995,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24007,13 +24007,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>67.46474657889404</v>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,7 +24092,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>56.57895837355435</v>
@@ -24162,10 +24162,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -24232,10 +24232,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24244,13 +24244,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>67.46474657889404</v>
@@ -24311,7 +24311,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24399,7 +24399,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -24472,7 +24472,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,10 +24481,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24542,13 +24542,13 @@
         <v>105.4566448252536</v>
       </c>
       <c r="I27" t="n">
-        <v>75.35636030051944</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24703,13 +24703,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24718,13 +24718,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>67.46474657889404</v>
@@ -24782,10 +24782,10 @@
         <v>65.23061315193451</v>
       </c>
       <c r="J30" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24870,7 +24870,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>46.68471506615329</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -24943,10 +24943,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24955,16 +24955,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.069265482343781</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S32" t="n">
         <v>179.1266962566148</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S33" t="n">
         <v>158.6458343615066</v>
@@ -25107,7 +25107,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>46.68471506615327</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -25180,10 +25180,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25192,16 +25192,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>133.1811664518765</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S35" t="n">
         <v>179.1266962566148</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,7 +25277,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>56.57895837355435</v>
@@ -25344,7 +25344,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.68471506615329</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -25417,10 +25417,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25429,13 +25429,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>67.46474657889404</v>
@@ -25496,7 +25496,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25581,10 +25581,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.68471506615329</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -25651,13 +25651,13 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J41" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>28.74947534450564</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25666,16 +25666,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.069265482343809</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.64258426171739</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S41" t="n">
         <v>179.1266962566148</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S42" t="n">
         <v>158.6458343615066</v>
@@ -25879,22 +25879,22 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9370783158017</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H44" t="n">
-        <v>325.4887448405939</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I44" t="n">
-        <v>157.8263132881047</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J44" t="n">
-        <v>65.13728705726245</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>46.37287966777356</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>20.25515087118046</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25906,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>34.84949581712632</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>74.82986001243395</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>64.08352826102249</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S44" t="n">
-        <v>177.9001105814353</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T44" t="n">
-        <v>217.1176764190494</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2364001718898</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6128250736805</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H45" t="n">
-        <v>105.1784969507712</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I45" t="n">
-        <v>64.2390324004872</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J45" t="n">
-        <v>57.80324815540079</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>19.8506904645741</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.70956981547315</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>54.79082880444759</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S45" t="n">
-        <v>158.1108860198022</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T45" t="n">
-        <v>197.2195268076366</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8933102329794</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3783916561348</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H46" t="n">
-        <v>156.7807109358685</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I46" t="n">
-        <v>137.0282920246438</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J46" t="n">
-        <v>50.04922956237019</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K46" t="n">
-        <v>57.84170511871758</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>43.80959188300443</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>42.89987711877139</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>33.94291907233412</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>51.87005121790979</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>63.63830594262306</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.86617665073242</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R46" t="n">
-        <v>149.7492206890403</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S46" t="n">
-        <v>213.3408650791996</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T46" t="n">
-        <v>225.3281692456247</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2856154818187</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>337648.8992371686</v>
+        <v>368885.4465952704</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>342561.4923672605</v>
+        <v>367775.0826599986</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>308334.2261472449</v>
+        <v>367127.0398988259</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>330539.0587413127</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>330539.0587413127</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>334853.3187908116</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>326636.3935937091</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>332696.9043820126</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>352173.4029170345</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>318116.017560804</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>343550.4443422714</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>319424.0034202278</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>330736.1463492342</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>324567.6728308847</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>310882.2360228532</v>
+        <v>365943.6516283216</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59258.08571937139</v>
+        <v>64166.68601850164</v>
       </c>
       <c r="C2" t="n">
-        <v>60690.31539757321</v>
+        <v>64652.45101500345</v>
       </c>
       <c r="D2" t="n">
-        <v>55311.74499157079</v>
+        <v>64985.55566641795</v>
       </c>
       <c r="E2" t="n">
-        <v>60312.26468048619</v>
+        <v>65875.84356273037</v>
       </c>
       <c r="F2" t="n">
-        <v>60312.26468048619</v>
+        <v>65875.84356273037</v>
       </c>
       <c r="G2" t="n">
-        <v>60990.21983112172</v>
+        <v>65875.84356273037</v>
       </c>
       <c r="H2" t="n">
-        <v>59698.98872871989</v>
+        <v>65875.84356273038</v>
       </c>
       <c r="I2" t="n">
-        <v>60651.35470973901</v>
+        <v>65875.84356273037</v>
       </c>
       <c r="J2" t="n">
-        <v>63711.94733667102</v>
+        <v>65875.84356273037</v>
       </c>
       <c r="K2" t="n">
-        <v>58360.07249497768</v>
+        <v>65875.84356273038</v>
       </c>
       <c r="L2" t="n">
-        <v>62356.91098920824</v>
+        <v>65875.84356273038</v>
       </c>
       <c r="M2" t="n">
-        <v>58565.61313003</v>
+        <v>65875.84356273038</v>
       </c>
       <c r="N2" t="n">
-        <v>60343.23559030241</v>
+        <v>65875.84356273038</v>
       </c>
       <c r="O2" t="n">
-        <v>59373.90403741892</v>
+        <v>65875.84356273037</v>
       </c>
       <c r="P2" t="n">
-        <v>57450.12732055318</v>
+        <v>65875.84356273038</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>23690.54434158194</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15278.63930251696</v>
       </c>
       <c r="E3" t="n">
-        <v>52640.43902278915</v>
+        <v>38307.52917829801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>8911.728550812868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19810.0758332672</v>
+        <v>24718.67613239747</v>
       </c>
       <c r="C4" t="n">
-        <v>17040.70978027683</v>
+        <v>21002.84539770707</v>
       </c>
       <c r="D4" t="n">
-        <v>11662.13937427441</v>
+        <v>18568.15041531109</v>
       </c>
       <c r="E4" t="n">
-        <v>7046.002727795812</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="F4" t="n">
-        <v>7046.002727795811</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="G4" t="n">
-        <v>7723.957878431343</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="H4" t="n">
-        <v>6432.726776029505</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="I4" t="n">
-        <v>7385.092757048631</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="J4" t="n">
-        <v>10445.68538398064</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="K4" t="n">
-        <v>5093.810542287287</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="L4" t="n">
-        <v>9090.649036517862</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="M4" t="n">
-        <v>5299.351177339615</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="N4" t="n">
-        <v>7076.973637612019</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="O4" t="n">
-        <v>6107.642084728529</v>
+        <v>12609.58161003999</v>
       </c>
       <c r="P4" t="n">
-        <v>2740.64403079522</v>
+        <v>12609.58161003999</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>39312.96135688073</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>39701.87879260092</v>
       </c>
       <c r="E5" t="n">
         <v>7113.737365803781</v>
@@ -26511,7 +26511,7 @@
         <v>7113.737365803781</v>
       </c>
       <c r="P5" t="n">
-        <v>7405.628423185238</v>
+        <v>7113.737365803781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225534.8918237461</v>
+        <v>-240227.6009777622</v>
       </c>
       <c r="C6" t="n">
-        <v>-19353.90008116629</v>
+        <v>-34002.44878095488</v>
       </c>
       <c r="D6" t="n">
-        <v>4336.644260415647</v>
+        <v>-23181.37930276193</v>
       </c>
       <c r="E6" t="n">
-        <v>-6487.914435902549</v>
+        <v>-6692.335786861191</v>
       </c>
       <c r="F6" t="n">
-        <v>46152.5245868866</v>
+        <v>31615.19339143682</v>
       </c>
       <c r="G6" t="n">
-        <v>46152.5245868866</v>
+        <v>31615.19339143682</v>
       </c>
       <c r="H6" t="n">
-        <v>46152.5245868866</v>
+        <v>31615.19339143683</v>
       </c>
       <c r="I6" t="n">
-        <v>46152.5245868866</v>
+        <v>31615.19339143682</v>
       </c>
       <c r="J6" t="n">
-        <v>46152.5245868866</v>
+        <v>31615.19339143682</v>
       </c>
       <c r="K6" t="n">
-        <v>46152.5245868866</v>
+        <v>31615.19339143683</v>
       </c>
       <c r="L6" t="n">
-        <v>46152.5245868866</v>
+        <v>31615.19339143683</v>
       </c>
       <c r="M6" t="n">
-        <v>46152.5245868866</v>
+        <v>31615.19339143683</v>
       </c>
       <c r="N6" t="n">
-        <v>46152.5245868866</v>
+        <v>31615.19339143683</v>
       </c>
       <c r="O6" t="n">
-        <v>46152.52458688661</v>
+        <v>31615.19339143682</v>
       </c>
       <c r="P6" t="n">
-        <v>38392.12631575984</v>
+        <v>31615.19339143683</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>260.7963925174648</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>278.6366418624276</v>
       </c>
       <c r="E3" t="n">
         <v>326.3182277891643</v>
@@ -26779,7 +26779,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="P3" t="n">
-        <v>339.7077258341852</v>
+        <v>326.3182277891643</v>
       </c>
     </row>
     <row r="4">
@@ -26965,10 +26965,10 @@
         <v>26.01635439147063</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.84024934496279</v>
       </c>
       <c r="E3" t="n">
-        <v>65.52183527169944</v>
+        <v>47.68158592673666</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>13.38949804502096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31056,7 +31056,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L2" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M2" t="n">
         <v>165.7299311340341</v>
@@ -31065,7 +31065,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O2" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P2" t="n">
         <v>135.7252782213693</v>
@@ -31080,7 +31080,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T2" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U2" t="n">
         <v>0.07550714794001816</v>
@@ -31150,7 +31150,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R3" t="n">
         <v>31.35420961992052</v>
@@ -31199,7 +31199,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H4" t="n">
         <v>3.764178316183975</v>
@@ -31217,7 +31217,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M4" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N4" t="n">
         <v>64.78774396352233</v>
@@ -31229,13 +31229,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R4" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S4" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T4" t="n">
         <v>1.808960949495364</v>
@@ -31287,7 +31287,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J5" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K5" t="n">
         <v>133.3639361394712</v>
@@ -31311,7 +31311,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R5" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S5" t="n">
         <v>23.89104641001701</v>
@@ -31320,7 +31320,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31360,7 +31360,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H6" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I6" t="n">
         <v>19.31369510624622</v>
@@ -31393,7 +31393,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S6" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T6" t="n">
         <v>2.261055516259907</v>
@@ -31445,7 +31445,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J7" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K7" t="n">
         <v>54.63898190775737</v>
@@ -31460,13 +31460,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O7" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P7" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R7" t="n">
         <v>21.14588454739968</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>1.120147303969557</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>11.47170857677823</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>43.1844789362864</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>95.07110224028631</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>142.4869376173177</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>176.7676456711761</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>196.6880652881447</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>199.8706838155482</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>188.7322190617009</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>161.0785824949524</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>120.9633071715426</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>70.36345308297777</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>25.52535668920632</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>4.90344482312674</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08961178431756457</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5993316447606933</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>5.788281937557223</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>20.63488338320808</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>56.62369719206183</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>96.77891739102829</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>130.1311976924479</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -31618,25 +31618,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>114.446057673645</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>76.50415872418957</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>37.2111349264578</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>11.1323224366734</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>2.415727111995952</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03942971347109826</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5024595181125743</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>4.467321897400891</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>15.11032805378542</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>35.52388793055901</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>58.37666037707908</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>74.70202690193675</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>78.76281337104653</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>76.89000971262699</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>71.02036897831189</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>60.77019480881533</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>42.07413292122657</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>22.59240705986175</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>8.756499056561861</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>2.146872486480999</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02740688280614045</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
         <v>111.3401072796808</v>
@@ -32022,7 +32022,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
         <v>29.89337332963048</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
         <v>6.778799411242828</v>
@@ -32101,7 +32101,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
         <v>13.03733674233122</v>
@@ -32150,7 +32150,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
         <v>17.69607700863206</v>
@@ -32162,10 +32162,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
         <v>90.04778243237713</v>
@@ -33417,7 +33417,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J32" t="n">
         <v>111.3401072796808</v>
@@ -33444,7 +33444,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S32" t="n">
         <v>29.89337332963048</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H33" t="n">
         <v>6.778799411242828</v>
@@ -33523,7 +33523,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S33" t="n">
         <v>13.03733674233122</v>
@@ -33572,7 +33572,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I34" t="n">
         <v>17.69607700863206</v>
@@ -33584,10 +33584,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M34" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N34" t="n">
         <v>90.04778243237713</v>
@@ -34128,7 +34128,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J41" t="n">
         <v>111.3401072796808</v>
@@ -34155,7 +34155,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S41" t="n">
         <v>29.89337332963048</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H42" t="n">
         <v>6.778799411242828</v>
@@ -34234,7 +34234,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S42" t="n">
         <v>13.03733674233122</v>
@@ -34283,7 +34283,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I43" t="n">
         <v>17.69607700863206</v>
@@ -34295,10 +34295,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M43" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N43" t="n">
         <v>90.04778243237713</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.365659199333407</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H44" t="n">
-        <v>13.98605727517326</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I44" t="n">
-        <v>52.64957628230122</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J44" t="n">
-        <v>115.9086174694238</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K44" t="n">
-        <v>173.716971377207</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L44" t="n">
-        <v>215.5112640988068</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M44" t="n">
         <v>230.3462332272727</v>
@@ -34383,25 +34383,25 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P44" t="n">
-        <v>196.3834999381432</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.4758298620155</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R44" t="n">
-        <v>85.78558968012719</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S44" t="n">
-        <v>31.11995900481004</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T44" t="n">
-        <v>5.978173145081992</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1092527359466725</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7306920895301342</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H45" t="n">
-        <v>7.056947285725245</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I45" t="n">
-        <v>25.15760045092787</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J45" t="n">
-        <v>69.0343785112659</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K45" t="n">
-        <v>117.9907485097849</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34468,19 +34468,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.27220427054837</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R45" t="n">
-        <v>45.36700534819555</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S45" t="n">
-        <v>13.5722850840356</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T45" t="n">
-        <v>2.945201887185058</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04807184799540359</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6125877023239404</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H46" t="n">
-        <v>5.446461571571039</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I46" t="n">
-        <v>18.42218290261451</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J46" t="n">
-        <v>43.30995055430259</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K46" t="n">
-        <v>71.1715530518178</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L46" t="n">
-        <v>91.07508439823386</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M46" t="n">
-        <v>96.02590682883367</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N46" t="n">
-        <v>93.74262539289907</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O46" t="n">
-        <v>86.586487233933</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P46" t="n">
-        <v>74.08969810652455</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.29586660096196</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R46" t="n">
-        <v>27.54417068812917</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S46" t="n">
-        <v>10.67573295777267</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T46" t="n">
-        <v>2.617420182656836</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03341387467221497</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_11_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119376.2252891309</v>
+        <v>-9617.398576855911</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11516724.97267368</v>
+        <v>11494591.38192463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21840749.86579527</v>
+        <v>21843778.08989904</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4237248.324353349</v>
+        <v>4237847.476314493</v>
       </c>
     </row>
     <row r="11">
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>85.97480228639998</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
-        <v>77.60291342766286</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L8" t="n">
-        <v>58.99876929881117</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>33.65816793912805</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
-        <v>29.54237978104271</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O8" t="n">
-        <v>41.36599235998582</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P8" t="n">
-        <v>70.15441326031711</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.3423827029069</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>70.21392947460487</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
-        <v>41.06252158333071</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L9" t="n">
-        <v>8.423182087426255</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P9" t="n">
-        <v>19.5283497406852</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q9" t="n">
-        <v>63.47761536183195</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>70.6365977934563</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L10" t="n">
-        <v>60.18264937930154</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M10" t="n">
-        <v>60.16297057655852</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N10" t="n">
-        <v>50.7955347526062</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>67.4361694735309</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>76.9578092403323</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P32" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10512,10 +10512,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M34" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N34" t="n">
         <v>37.63776203285606</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.069265482343781</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.64258426171736</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11223,10 +11223,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>47.39929435887774</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>46.68471506615327</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
         <v>37.63776203285606</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P44" t="n">
         <v>42.58990408143413</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.64258426171739</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11460,10 +11460,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L46" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M46" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N46" t="n">
         <v>37.63776203285606</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.1825902111655</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H8" t="n">
-        <v>328.0030935389889</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I8" t="n">
-        <v>167.2914106341195</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>79.50566485817191</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S8" t="n">
-        <v>183.494712897039</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T8" t="n">
-        <v>218.1924047410046</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7441855184499</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H9" t="n">
-        <v>106.4471622989392</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I9" t="n">
-        <v>68.761749468207</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>62.94669922618533</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S9" t="n">
-        <v>160.5508486671644</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T9" t="n">
-        <v>197.7490015828257</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9019523675037</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.4885198403462</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7598506100387</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I10" t="n">
-        <v>140.3401468734729</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>57.83529218611377</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.08791033046781</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R10" t="n">
-        <v>154.7009843173077</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S10" t="n">
-        <v>215.2600989804104</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T10" t="n">
-        <v>225.7987169418005</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S32" t="n">
         <v>179.1266962566148</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S33" t="n">
         <v>158.6458343615066</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>67.46474657889402</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S41" t="n">
         <v>179.1266962566148</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>56.57895837355434</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S42" t="n">
         <v>158.6458343615066</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>67.46474657889404</v>
+        <v>67.46474657889402</v>
       </c>
       <c r="S44" t="n">
         <v>179.1266962566148</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.57895837355435</v>
+        <v>56.57895837355434</v>
       </c>
       <c r="S45" t="n">
         <v>158.6458343615066</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>367127.0398988259</v>
+        <v>367775.0826599986</v>
       </c>
     </row>
     <row r="5">
@@ -26319,7 +26319,7 @@
         <v>64652.45101500345</v>
       </c>
       <c r="D2" t="n">
-        <v>64985.55566641795</v>
+        <v>64652.45101500345</v>
       </c>
       <c r="E2" t="n">
         <v>65875.84356273037</v>
@@ -26331,7 +26331,7 @@
         <v>65875.84356273037</v>
       </c>
       <c r="H2" t="n">
-        <v>65875.84356273038</v>
+        <v>65875.84356273037</v>
       </c>
       <c r="I2" t="n">
         <v>65875.84356273037</v>
@@ -26340,22 +26340,22 @@
         <v>65875.84356273037</v>
       </c>
       <c r="K2" t="n">
-        <v>65875.84356273038</v>
+        <v>65875.84356273037</v>
       </c>
       <c r="L2" t="n">
-        <v>65875.84356273038</v>
+        <v>65875.84356273036</v>
       </c>
       <c r="M2" t="n">
-        <v>65875.84356273038</v>
+        <v>65875.84356273037</v>
       </c>
       <c r="N2" t="n">
-        <v>65875.84356273038</v>
+        <v>65875.84356273037</v>
       </c>
       <c r="O2" t="n">
         <v>65875.84356273037</v>
       </c>
       <c r="P2" t="n">
-        <v>65875.84356273038</v>
+        <v>65875.84356273037</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>23690.54434158194</v>
       </c>
       <c r="D3" t="n">
-        <v>15278.63930251696</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38307.52917829801</v>
+        <v>52640.43902278915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>21002.84539770707</v>
       </c>
       <c r="D4" t="n">
-        <v>18568.15041531109</v>
+        <v>21002.84539770707</v>
       </c>
       <c r="E4" t="n">
         <v>12609.58161003999</v>
@@ -26475,7 +26475,7 @@
         <v>39312.96135688073</v>
       </c>
       <c r="D5" t="n">
-        <v>39701.87879260092</v>
+        <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
         <v>7113.737365803781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-240227.6009777622</v>
+        <v>-227004.1627391478</v>
       </c>
       <c r="C6" t="n">
-        <v>-34002.44878095488</v>
+        <v>-20818.75495114515</v>
       </c>
       <c r="D6" t="n">
-        <v>-23181.37930276193</v>
+        <v>2871.789390436788</v>
       </c>
       <c r="E6" t="n">
-        <v>-6692.335786861191</v>
+        <v>-7941.647555447528</v>
       </c>
       <c r="F6" t="n">
-        <v>31615.19339143682</v>
+        <v>44698.79146734162</v>
       </c>
       <c r="G6" t="n">
-        <v>31615.19339143682</v>
+        <v>44698.79146734162</v>
       </c>
       <c r="H6" t="n">
-        <v>31615.19339143683</v>
+        <v>44698.79146734162</v>
       </c>
       <c r="I6" t="n">
-        <v>31615.19339143682</v>
+        <v>44698.79146734162</v>
       </c>
       <c r="J6" t="n">
-        <v>31615.19339143682</v>
+        <v>44698.79146734162</v>
       </c>
       <c r="K6" t="n">
-        <v>31615.19339143683</v>
+        <v>44698.79146734162</v>
       </c>
       <c r="L6" t="n">
-        <v>31615.19339143683</v>
+        <v>44698.7914673416</v>
       </c>
       <c r="M6" t="n">
-        <v>31615.19339143683</v>
+        <v>44698.79146734162</v>
       </c>
       <c r="N6" t="n">
-        <v>31615.19339143683</v>
+        <v>44698.79146734162</v>
       </c>
       <c r="O6" t="n">
-        <v>31615.19339143682</v>
+        <v>44698.79146734162</v>
       </c>
       <c r="P6" t="n">
-        <v>31615.19339143683</v>
+        <v>44698.79146734162</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>260.7963925174648</v>
       </c>
       <c r="D3" t="n">
-        <v>278.6366418624276</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
         <v>326.3182277891643</v>
@@ -26965,10 +26965,10 @@
         <v>26.01635439147063</v>
       </c>
       <c r="D3" t="n">
-        <v>17.84024934496279</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>47.68158592673666</v>
+        <v>65.52183527169944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.120147303969557</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H8" t="n">
-        <v>11.47170857677823</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I8" t="n">
-        <v>43.1844789362864</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>95.07110224028631</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
-        <v>142.4869376173177</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L8" t="n">
-        <v>176.7676456711761</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M8" t="n">
-        <v>196.6880652881447</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N8" t="n">
-        <v>199.8706838155482</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O8" t="n">
-        <v>188.7322190617009</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P8" t="n">
-        <v>161.0785824949524</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.9633071715426</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>70.36345308297777</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
-        <v>25.52535668920632</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T8" t="n">
-        <v>4.90344482312674</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.788281937557223</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
-        <v>20.63488338320808</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J9" t="n">
-        <v>56.62369719206183</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K9" t="n">
-        <v>96.77891739102829</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L9" t="n">
-        <v>130.1311976924479</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -31618,25 +31618,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P9" t="n">
-        <v>114.446057673645</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.50415872418957</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R9" t="n">
-        <v>37.2111349264578</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>11.1323224366734</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
-        <v>2.415727111995952</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H10" t="n">
-        <v>4.467321897400891</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I10" t="n">
-        <v>15.11032805378542</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>35.52388793055901</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
-        <v>58.37666037707908</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L10" t="n">
-        <v>74.70202690193675</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M10" t="n">
-        <v>78.76281337104653</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N10" t="n">
-        <v>76.89000971262699</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>71.02036897831189</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>60.77019480881533</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.07413292122657</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
-        <v>22.59240705986175</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S10" t="n">
-        <v>8.756499056561861</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T10" t="n">
-        <v>2.146872486480999</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J32" t="n">
         <v>111.3401072796808</v>
@@ -33444,7 +33444,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S32" t="n">
         <v>29.89337332963048</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H33" t="n">
         <v>6.778799411242828</v>
@@ -33523,7 +33523,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S33" t="n">
         <v>13.03733674233122</v>
@@ -33572,7 +33572,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I34" t="n">
         <v>17.69607700863206</v>
@@ -33584,10 +33584,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M34" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N34" t="n">
         <v>90.04778243237713</v>
@@ -34128,7 +34128,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>50.5744059370523</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J41" t="n">
         <v>111.3401072796808</v>
@@ -34155,7 +34155,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>82.40437136225566</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S41" t="n">
         <v>29.89337332963048</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.70189203713141</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H42" t="n">
         <v>6.778799411242828</v>
@@ -34234,7 +34234,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>43.57887577908879</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S42" t="n">
         <v>13.03733674233122</v>
@@ -34283,7 +34283,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>5.231790602914802</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I43" t="n">
         <v>17.69607700863206</v>
@@ -34295,10 +34295,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>87.48538192236055</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M43" t="n">
-        <v>92.24106888145178</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N43" t="n">
         <v>90.04778243237713</v>
@@ -34365,7 +34365,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I44" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J44" t="n">
         <v>111.3401072796808</v>
@@ -34392,7 +34392,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R44" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S44" t="n">
         <v>29.89337332963048</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H45" t="n">
         <v>6.778799411242828</v>
@@ -34471,7 +34471,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R45" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S45" t="n">
         <v>13.03733674233122</v>
@@ -34520,7 +34520,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H46" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I46" t="n">
         <v>17.69607700863206</v>
@@ -34532,10 +34532,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L46" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M46" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N46" t="n">
         <v>90.04778243237713</v>
